--- a/nodes_source_analyses/energy/energy_chp_combined_cycle_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_combined_cycle_network_gas.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="762"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -356,9 +364,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -727,6 +732,10 @@
   <si>
     <t>energy_chp_combined_cycle_network_gas.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +746,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -904,11 +913,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1507,7 +1511,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1556,7 +1560,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1567,56 +1571,56 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1705,7 +1709,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1723,7 +1727,7 @@
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1759,7 +1763,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1778,31 +1782,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2057,80 +2040,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2286,7 +2204,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2723,54 +2641,54 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2779,29 +2697,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="107" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="108"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="109"/>
       <c r="C10" s="110"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="109" t="s">
         <v>91</v>
@@ -2810,33 +2728,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="109"/>
       <c r="C12" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="109"/>
       <c r="C13" s="112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="109"/>
       <c r="C14" s="110" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="109"/>
       <c r="C15" s="110"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="109" t="s">
         <v>96</v>
@@ -2845,49 +2763,49 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="109"/>
       <c r="C17" s="114" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="109"/>
       <c r="C18" s="115" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="109"/>
       <c r="C19" s="116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="117"/>
       <c r="C20" s="118" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="117"/>
       <c r="C21" s="119" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="117"/>
       <c r="C22" s="120" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="117"/>
       <c r="C23" s="121" t="s">
         <v>104</v>
@@ -2896,76 +2814,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="60.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="60.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="164" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="C2" s="165"/>
       <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2976,7 +2889,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="122"/>
       <c r="C7" s="15" t="s">
         <v>33</v>
@@ -2997,7 +2910,7 @@
       </c>
       <c r="J7" s="129"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -3008,10 +2921,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3021,10 +2934,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -3040,7 +2953,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>65</v>
@@ -3059,7 +2972,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -3079,7 +2992,7 @@
       <c r="J12" s="130"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3099,7 +3012,7 @@
       <c r="J13" s="130"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>38</v>
@@ -3119,7 +3032,7 @@
       <c r="J14" s="130"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>11</v>
@@ -3139,7 +3052,7 @@
       <c r="J15" s="130"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -3159,7 +3072,7 @@
       <c r="J16" s="130"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3179,7 +3092,7 @@
       <c r="J17" s="130"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -3201,7 +3114,7 @@
       </c>
       <c r="J18" s="130"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>44</v>
@@ -3222,7 +3135,7 @@
       </c>
       <c r="J19" s="130"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="69" t="s">
         <v>77</v>
@@ -3243,7 +3156,7 @@
       </c>
       <c r="J20" s="130"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="69" t="s">
         <v>78</v>
@@ -3264,7 +3177,7 @@
       </c>
       <c r="J21" s="130"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="69" t="s">
         <v>79</v>
@@ -3285,7 +3198,7 @@
       </c>
       <c r="J22" s="130"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="69" t="s">
         <v>80</v>
@@ -3306,7 +3219,7 @@
       </c>
       <c r="J23" s="130"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="69" t="s">
         <v>81</v>
@@ -3327,7 +3240,7 @@
       </c>
       <c r="J24" s="130"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="37"/>
       <c r="C25" s="92"/>
       <c r="D25" s="125"/>
@@ -3338,10 +3251,10 @@
       <c r="I25" s="32"/>
       <c r="J25" s="130"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="125"/>
       <c r="E26" s="126"/>
@@ -3351,7 +3264,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="130"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>45</v>
@@ -3369,11 +3282,11 @@
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="130"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>46</v>
@@ -3394,7 +3307,7 @@
       </c>
       <c r="J28" s="130"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>13</v>
@@ -3415,13 +3328,13 @@
       </c>
       <c r="J29" s="130"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="44">
         <v>0</v>
@@ -3436,7 +3349,7 @@
       </c>
       <c r="J30" s="130"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>48</v>
@@ -3454,11 +3367,11 @@
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J31" s="130"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>49</v>
@@ -3476,11 +3389,11 @@
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J32" s="130"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>50</v>
@@ -3501,7 +3414,7 @@
       </c>
       <c r="J33" s="130"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>53</v>
@@ -3522,7 +3435,7 @@
       </c>
       <c r="J34" s="130"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>40</v>
@@ -3541,7 +3454,7 @@
       </c>
       <c r="J35" s="130"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="37"/>
       <c r="C36" s="33"/>
       <c r="D36" s="19"/>
@@ -3552,7 +3465,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="130"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="14" t="s">
         <v>8</v>
@@ -3565,7 +3478,7 @@
       <c r="I37" s="32"/>
       <c r="J37" s="130"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="33" t="s">
         <v>39</v>
@@ -3587,7 +3500,7 @@
       </c>
       <c r="J38" s="130"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="33" t="s">
         <v>51</v>
@@ -3605,11 +3518,11 @@
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J39" s="130"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="33" t="s">
         <v>52</v>
@@ -3627,11 +3540,11 @@
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J40" s="130"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="33" t="s">
         <v>37</v>
@@ -3650,7 +3563,7 @@
       </c>
       <c r="J41" s="130"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="45" t="s">
         <v>66</v>
@@ -3667,7 +3580,7 @@
       </c>
       <c r="J42" s="130"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="45" t="s">
         <v>67</v>
@@ -3684,7 +3597,7 @@
       </c>
       <c r="J43" s="130"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="45" t="s">
         <v>69</v>
@@ -3701,7 +3614,7 @@
       </c>
       <c r="J44" s="130"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="45" t="s">
         <v>70</v>
@@ -3718,7 +3631,7 @@
       </c>
       <c r="J45" s="130"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="45" t="s">
         <v>68</v>
@@ -3735,7 +3648,7 @@
       </c>
       <c r="J46" s="130"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -3748,47 +3661,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3803,30 +3679,29 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="72" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="73" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="73" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="72" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="72" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="73" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="73" customWidth="1"/>
     <col min="11" max="11" width="9" style="73" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="73" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="73" customWidth="1"/>
-    <col min="14" max="14" width="3.25" style="73" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="73" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="73" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="73" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="73" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="73" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="73" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="73" customWidth="1"/>
     <col min="17" max="17" width="114" style="72" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="72"/>
+    <col min="18" max="16384" width="10.7109375" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="74"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -3844,10 +3719,10 @@
       <c r="P2" s="76"/>
       <c r="Q2" s="75"/>
     </row>
-    <row r="3" spans="2:17" s="21" customFormat="1">
+    <row r="3" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3859,15 +3734,15 @@
       </c>
       <c r="H3" s="139"/>
       <c r="I3" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L3" s="66"/>
       <c r="M3" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N3" s="66"/>
       <c r="O3" s="66" t="s">
@@ -3875,10 +3750,10 @@
       </c>
       <c r="P3" s="66"/>
       <c r="Q3" s="139" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="77"/>
       <c r="C4" s="78"/>
       <c r="D4" s="78"/>
@@ -3896,10 +3771,10 @@
       <c r="P4" s="136"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="77"/>
       <c r="C5" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3916,7 +3791,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="69"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="77"/>
       <c r="C6" s="80" t="s">
         <v>30</v>
@@ -3942,7 +3817,7 @@
       <c r="N6" s="79"/>
       <c r="Q6" s="69"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="77"/>
       <c r="C7" s="91"/>
       <c r="D7" s="91"/>
@@ -3959,7 +3834,7 @@
       <c r="O7" s="85"/>
       <c r="Q7" s="140"/>
     </row>
-    <row r="8" spans="2:17" ht="16" thickBot="1">
+    <row r="8" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="77"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
@@ -3979,10 +3854,10 @@
       <c r="P8" s="85"/>
       <c r="Q8" s="30"/>
     </row>
-    <row r="9" spans="2:17" ht="16" thickBot="1">
+    <row r="9" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="77"/>
       <c r="C9" s="141" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -4005,10 +3880,10 @@
         <v>0.12968399999999999</v>
       </c>
       <c r="Q9" s="138" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="77"/>
       <c r="C10" s="93" t="s">
         <v>1</v>
@@ -4038,7 +3913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="77"/>
       <c r="C11" s="96" t="s">
         <v>6</v>
@@ -4066,7 +3941,7 @@
       <c r="P11" s="79"/>
       <c r="Q11" s="69"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="77"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -4084,10 +3959,10 @@
       <c r="P12" s="85"/>
       <c r="Q12" s="69"/>
     </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="77"/>
       <c r="C13" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -4104,10 +3979,10 @@
       <c r="P13" s="85"/>
       <c r="Q13" s="69"/>
     </row>
-    <row r="14" spans="2:17" ht="16" thickBot="1">
+    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="77"/>
       <c r="C14" s="131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4129,7 +4004,7 @@
       <c r="P14" s="85"/>
       <c r="Q14" s="69"/>
     </row>
-    <row r="15" spans="2:17" ht="16" thickBot="1">
+    <row r="15" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="98" t="s">
         <v>9</v>
@@ -4137,7 +4012,7 @@
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
       <c r="F15" s="132" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" s="94">
         <v>1050</v>
@@ -4158,13 +4033,13 @@
       <c r="O15" s="85"/>
       <c r="P15" s="85"/>
       <c r="Q15" s="70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="77"/>
       <c r="C16" s="144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -4189,10 +4064,10 @@
       <c r="P16" s="85"/>
       <c r="Q16" s="70"/>
     </row>
-    <row r="17" spans="2:17" ht="16" thickBot="1">
+    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="77"/>
       <c r="C17" s="144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -4213,18 +4088,18 @@
       <c r="O17" s="95"/>
       <c r="P17" s="88"/>
       <c r="Q17" s="70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="16" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="77"/>
       <c r="C18" s="131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="149">
         <v>10</v>
@@ -4239,13 +4114,13 @@
       <c r="O18" s="95"/>
       <c r="P18" s="88"/>
       <c r="Q18" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="77"/>
       <c r="C19" s="131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -4266,13 +4141,13 @@
       <c r="O19" s="95"/>
       <c r="P19" s="88"/>
       <c r="Q19" s="147" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="16" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="77"/>
       <c r="C20" s="144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="101"/>
@@ -4293,18 +4168,18 @@
       <c r="O20" s="95"/>
       <c r="P20" s="88"/>
       <c r="Q20" s="147" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="16" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="77"/>
       <c r="C21" s="131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
       <c r="F21" s="132" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="102">
         <v>3</v>
@@ -4325,13 +4200,13 @@
       <c r="O21" s="88"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="147" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="16" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="77"/>
       <c r="C22" s="137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
@@ -4351,18 +4226,18 @@
       <c r="O22" s="85"/>
       <c r="P22" s="85"/>
       <c r="Q22" s="163" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="16" thickBot="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="77"/>
       <c r="C23" s="145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
       <c r="F23" s="137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" s="103">
         <f>G22*G6</f>
@@ -4378,10 +4253,10 @@
       <c r="O23" s="85"/>
       <c r="P23" s="85"/>
       <c r="Q23" s="148" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="77"/>
       <c r="C24" s="145"/>
       <c r="D24" s="69"/>
@@ -4398,10 +4273,10 @@
       <c r="O24" s="85"/>
       <c r="P24" s="85"/>
       <c r="Q24" s="161" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="77"/>
       <c r="C25" s="145"/>
       <c r="D25" s="69"/>
@@ -4418,7 +4293,7 @@
       <c r="O25" s="85"/>
       <c r="P25" s="85"/>
       <c r="Q25" s="161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4428,11 +4303,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4447,22 +4317,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
     <col min="10" max="10" width="32" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.25" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4474,7 +4344,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>23</v>
@@ -4488,7 +4358,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4500,7 +4370,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>31</v>
@@ -4516,19 +4386,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4540,32 +4410,32 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="59"/>
       <c r="D7" s="64"/>
       <c r="E7" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K7" s="59"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="59"/>
@@ -4576,7 +4446,7 @@
       <c r="J8" s="62"/>
       <c r="K8" s="59"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
         <v>88</v>
@@ -4590,7 +4460,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="64"/>
@@ -4602,12 +4472,12 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>72</v>
@@ -4620,13 +4490,13 @@
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K11" s="63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="60" t="s">
         <v>1</v>
@@ -4640,7 +4510,7 @@
       <c r="J12" s="55"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="59" t="s">
         <v>76</v>
@@ -4654,7 +4524,7 @@
       <c r="J13" s="55"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -4666,12 +4536,12 @@
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>72</v>
@@ -4684,16 +4554,16 @@
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -4704,7 +4574,7 @@
       <c r="J16" s="55"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="64" t="s">
         <v>60</v>
@@ -4718,7 +4588,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -4729,12 +4599,12 @@
       <c r="J18" s="65"/>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="68">
@@ -4744,13 +4614,13 @@
       <c r="I19" s="59"/>
       <c r="J19" s="65"/>
       <c r="K19" s="63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="59"/>
       <c r="F20" s="59"/>
@@ -4760,7 +4630,7 @@
       <c r="J20" s="65"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="64" t="s">
         <v>60</v>
@@ -4773,7 +4643,7 @@
       <c r="J21" s="65"/>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -4785,7 +4655,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="59"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="51"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -4805,7 +4675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="51"/>
       <c r="C24" s="59" t="s">
         <v>87</v>
@@ -4830,11 +4700,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4846,16 +4711,16 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="146" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="146" customWidth="1"/>
     <col min="2" max="2" width="4" style="146" customWidth="1"/>
     <col min="3" max="3" width="17" style="146" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="146"/>
+    <col min="4" max="16384" width="10.7109375" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="152"/>
       <c r="C2" s="153"/>
       <c r="D2" s="153"/>
@@ -4871,13 +4736,13 @@
       <c r="N2" s="153"/>
       <c r="O2" s="154"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="122"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4891,7 +4756,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="158"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="155"/>
       <c r="C4" s="156"/>
       <c r="D4" s="156"/>
@@ -4907,10 +4772,10 @@
       <c r="N4" s="156"/>
       <c r="O4" s="157"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="155"/>
       <c r="C5" s="156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="156"/>
       <c r="E5" s="156"/>
@@ -4925,10 +4790,10 @@
       <c r="N5" s="156"/>
       <c r="O5" s="157"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="155"/>
       <c r="C6" s="156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="156"/>
       <c r="E6" s="156"/>
@@ -4943,7 +4808,7 @@
       <c r="N6" s="156"/>
       <c r="O6" s="157"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="155"/>
       <c r="C7" s="156"/>
       <c r="D7" s="156"/>
@@ -4959,7 +4824,7 @@
       <c r="N7" s="156"/>
       <c r="O7" s="157"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="155"/>
       <c r="C8" s="156"/>
       <c r="D8" s="156"/>
@@ -4975,7 +4840,7 @@
       <c r="N8" s="156"/>
       <c r="O8" s="157"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="155"/>
       <c r="C9" s="156"/>
       <c r="D9" s="156"/>
@@ -4991,7 +4856,7 @@
       <c r="N9" s="156"/>
       <c r="O9" s="157"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="155"/>
       <c r="C10" s="156"/>
       <c r="D10" s="156"/>
@@ -5007,7 +4872,7 @@
       <c r="N10" s="156"/>
       <c r="O10" s="157"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="155"/>
       <c r="C11" s="156"/>
       <c r="D11" s="156"/>
@@ -5023,7 +4888,7 @@
       <c r="N11" s="156"/>
       <c r="O11" s="157"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="155"/>
       <c r="C12" s="156"/>
       <c r="D12" s="156"/>
@@ -5039,7 +4904,7 @@
       <c r="N12" s="156"/>
       <c r="O12" s="157"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="155"/>
       <c r="C13" s="156"/>
       <c r="D13" s="156"/>
@@ -5055,7 +4920,7 @@
       <c r="N13" s="156"/>
       <c r="O13" s="157"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="155"/>
       <c r="C14" s="156"/>
       <c r="D14" s="156"/>
@@ -5071,7 +4936,7 @@
       <c r="N14" s="156"/>
       <c r="O14" s="157"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="155"/>
       <c r="C15" s="156"/>
       <c r="D15" s="156"/>
@@ -5087,7 +4952,7 @@
       <c r="N15" s="156"/>
       <c r="O15" s="157"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="155"/>
       <c r="C16" s="156"/>
       <c r="D16" s="156"/>
@@ -5103,7 +4968,7 @@
       <c r="N16" s="156"/>
       <c r="O16" s="157"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="155"/>
       <c r="C17" s="156"/>
       <c r="D17" s="156"/>
@@ -5119,7 +4984,7 @@
       <c r="N17" s="156"/>
       <c r="O17" s="157"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="155"/>
       <c r="C18" s="156"/>
       <c r="D18" s="156"/>
@@ -5135,7 +5000,7 @@
       <c r="N18" s="156"/>
       <c r="O18" s="157"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="155"/>
       <c r="C19" s="156"/>
       <c r="D19" s="156"/>
@@ -5151,14 +5016,14 @@
       <c r="N19" s="156"/>
       <c r="O19" s="157"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="155"/>
       <c r="C20" s="156"/>
       <c r="D20" s="156">
         <v>120000</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="156"/>
       <c r="G20" s="156"/>
@@ -5171,14 +5036,14 @@
       <c r="N20" s="156"/>
       <c r="O20" s="157"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="155"/>
       <c r="C21" s="156"/>
       <c r="D21" s="156">
         <v>1050</v>
       </c>
       <c r="E21" s="156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="156"/>
       <c r="G21" s="156"/>
@@ -5191,7 +5056,7 @@
       <c r="N21" s="156"/>
       <c r="O21" s="157"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="155"/>
       <c r="C22" s="156"/>
       <c r="D22" s="156"/>
@@ -5207,7 +5072,7 @@
       <c r="N22" s="156"/>
       <c r="O22" s="157"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="155"/>
       <c r="C23" s="156"/>
       <c r="D23" s="156"/>
@@ -5223,7 +5088,7 @@
       <c r="N23" s="156"/>
       <c r="O23" s="157"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="155"/>
       <c r="C24" s="156"/>
       <c r="D24" s="156"/>
@@ -5239,10 +5104,10 @@
       <c r="N24" s="156"/>
       <c r="O24" s="157"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="155"/>
       <c r="C25" s="156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="156"/>
       <c r="E25" s="156"/>
@@ -5257,7 +5122,7 @@
       <c r="N25" s="156"/>
       <c r="O25" s="157"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="155"/>
       <c r="C26" s="156"/>
       <c r="D26" s="156"/>
@@ -5273,7 +5138,7 @@
       <c r="N26" s="156"/>
       <c r="O26" s="157"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="155"/>
       <c r="C27" s="156"/>
       <c r="D27" s="156"/>
@@ -5289,7 +5154,7 @@
       <c r="N27" s="156"/>
       <c r="O27" s="157"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="155"/>
       <c r="C28" s="156"/>
       <c r="D28" s="156"/>
@@ -5305,7 +5170,7 @@
       <c r="N28" s="156"/>
       <c r="O28" s="157"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="155"/>
       <c r="C29" s="156"/>
       <c r="D29" s="156"/>
@@ -5321,7 +5186,7 @@
       <c r="N29" s="156"/>
       <c r="O29" s="157"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="155"/>
       <c r="C30" s="156"/>
       <c r="D30" s="156"/>
@@ -5337,7 +5202,7 @@
       <c r="N30" s="156"/>
       <c r="O30" s="157"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="155"/>
       <c r="C31" s="156"/>
       <c r="D31" s="156"/>
@@ -5353,7 +5218,7 @@
       <c r="N31" s="156"/>
       <c r="O31" s="157"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="155"/>
       <c r="C32" s="156"/>
       <c r="D32" s="156"/>
@@ -5369,7 +5234,7 @@
       <c r="N32" s="156"/>
       <c r="O32" s="157"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="155"/>
       <c r="C33" s="156"/>
       <c r="D33" s="156"/>
@@ -5385,7 +5250,7 @@
       <c r="N33" s="156"/>
       <c r="O33" s="157"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="155"/>
       <c r="C34" s="156"/>
       <c r="D34" s="156"/>
@@ -5401,7 +5266,7 @@
       <c r="N34" s="156"/>
       <c r="O34" s="157"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="155"/>
       <c r="C35" s="156"/>
       <c r="D35" s="156"/>
@@ -5417,7 +5282,7 @@
       <c r="N35" s="156"/>
       <c r="O35" s="157"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="155"/>
       <c r="C36" s="156"/>
       <c r="D36" s="156"/>
@@ -5433,7 +5298,7 @@
       <c r="N36" s="156"/>
       <c r="O36" s="157"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="155"/>
       <c r="C37" s="156"/>
       <c r="D37" s="156"/>
@@ -5449,7 +5314,7 @@
       <c r="N37" s="156"/>
       <c r="O37" s="157"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="155"/>
       <c r="C38" s="156"/>
       <c r="D38" s="156"/>
@@ -5465,7 +5330,7 @@
       <c r="N38" s="156"/>
       <c r="O38" s="157"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="155"/>
       <c r="C39" s="156"/>
       <c r="D39" s="156"/>
@@ -5481,7 +5346,7 @@
       <c r="N39" s="156"/>
       <c r="O39" s="157"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="155"/>
       <c r="C40" s="156"/>
       <c r="D40" s="156"/>
@@ -5497,14 +5362,14 @@
       <c r="N40" s="156"/>
       <c r="O40" s="157"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="155"/>
       <c r="C41" s="156"/>
       <c r="D41" s="156">
         <v>2520000</v>
       </c>
       <c r="E41" s="156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="156"/>
       <c r="G41" s="156"/>
@@ -5517,16 +5382,16 @@
       <c r="N41" s="156"/>
       <c r="O41" s="157"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="155"/>
       <c r="C42" s="162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="156">
         <v>3.5</v>
       </c>
       <c r="E42" s="162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F42" s="156"/>
       <c r="G42" s="156"/>
@@ -5539,7 +5404,7 @@
       <c r="N42" s="156"/>
       <c r="O42" s="157"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="155"/>
       <c r="C43" s="156"/>
       <c r="D43" s="156"/>
@@ -5555,7 +5420,7 @@
       <c r="N43" s="156"/>
       <c r="O43" s="157"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="155"/>
       <c r="C44" s="156"/>
       <c r="D44" s="156"/>
@@ -5571,7 +5436,7 @@
       <c r="N44" s="156"/>
       <c r="O44" s="157"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="155"/>
       <c r="C45" s="156"/>
       <c r="D45" s="156"/>
@@ -5587,7 +5452,7 @@
       <c r="N45" s="156"/>
       <c r="O45" s="157"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="155"/>
       <c r="C46" s="156"/>
       <c r="D46" s="156"/>
@@ -5603,10 +5468,10 @@
       <c r="N46" s="156"/>
       <c r="O46" s="157"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="155"/>
       <c r="C47" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" s="156"/>
       <c r="E47" s="156"/>
@@ -5621,10 +5486,10 @@
       <c r="N47" s="156"/>
       <c r="O47" s="157"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="155"/>
       <c r="C48" s="156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="156"/>
       <c r="E48" s="156"/>
@@ -5639,7 +5504,7 @@
       <c r="N48" s="156"/>
       <c r="O48" s="157"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="155"/>
       <c r="C49" s="156"/>
       <c r="D49" s="156"/>
@@ -5655,7 +5520,7 @@
       <c r="N49" s="156"/>
       <c r="O49" s="157"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="155"/>
       <c r="C50" s="156"/>
       <c r="D50" s="156"/>
@@ -5671,7 +5536,7 @@
       <c r="N50" s="156"/>
       <c r="O50" s="157"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="155"/>
       <c r="C51" s="156"/>
       <c r="D51" s="156"/>
@@ -5687,7 +5552,7 @@
       <c r="N51" s="156"/>
       <c r="O51" s="157"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="155"/>
       <c r="C52" s="156"/>
       <c r="D52" s="156"/>
@@ -5703,7 +5568,7 @@
       <c r="N52" s="156"/>
       <c r="O52" s="157"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="155"/>
       <c r="C53" s="156"/>
       <c r="D53" s="156"/>
@@ -5719,14 +5584,14 @@
       <c r="N53" s="156"/>
       <c r="O53" s="157"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="155"/>
       <c r="C54" s="156"/>
       <c r="D54" s="156">
         <v>30</v>
       </c>
       <c r="E54" s="156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54" s="156"/>
       <c r="G54" s="156"/>
@@ -5739,14 +5604,14 @@
       <c r="N54" s="156"/>
       <c r="O54" s="157"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="155"/>
       <c r="C55" s="156"/>
       <c r="D55" s="156">
         <v>30</v>
       </c>
       <c r="E55" s="156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F55" s="156"/>
       <c r="G55" s="156"/>
@@ -5759,7 +5624,7 @@
       <c r="N55" s="156"/>
       <c r="O55" s="157"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="155"/>
       <c r="C56" s="156"/>
       <c r="D56" s="156"/>
@@ -5775,7 +5640,7 @@
       <c r="N56" s="156"/>
       <c r="O56" s="157"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="155"/>
       <c r="C57" s="156"/>
       <c r="D57" s="156"/>
@@ -5791,7 +5656,7 @@
       <c r="N57" s="156"/>
       <c r="O57" s="157"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="155"/>
       <c r="C58" s="156"/>
       <c r="D58" s="156"/>
@@ -5807,7 +5672,7 @@
       <c r="N58" s="156"/>
       <c r="O58" s="157"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="155"/>
       <c r="C59" s="156"/>
       <c r="D59" s="156"/>
@@ -5823,7 +5688,7 @@
       <c r="N59" s="156"/>
       <c r="O59" s="157"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="155"/>
       <c r="C60" s="156"/>
       <c r="D60" s="156"/>
@@ -5839,7 +5704,7 @@
       <c r="N60" s="156"/>
       <c r="O60" s="157"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="155"/>
       <c r="C61" s="156"/>
       <c r="D61" s="156"/>
@@ -5855,7 +5720,7 @@
       <c r="N61" s="156"/>
       <c r="O61" s="157"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="155"/>
       <c r="C62" s="156"/>
       <c r="D62" s="156"/>
@@ -5871,10 +5736,10 @@
       <c r="N62" s="156"/>
       <c r="O62" s="157"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="155"/>
       <c r="C63" s="160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63" s="156"/>
       <c r="E63" s="156"/>
@@ -5889,10 +5754,10 @@
       <c r="N63" s="156"/>
       <c r="O63" s="157"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="155"/>
       <c r="C64" s="160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64" s="156"/>
       <c r="E64" s="156"/>
@@ -5907,7 +5772,7 @@
       <c r="N64" s="156"/>
       <c r="O64" s="157"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="155"/>
       <c r="C65" s="156"/>
       <c r="D65" s="156"/>
@@ -5923,7 +5788,7 @@
       <c r="N65" s="156"/>
       <c r="O65" s="157"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="155"/>
       <c r="C66" s="156"/>
       <c r="D66" s="156"/>
@@ -5939,7 +5804,7 @@
       <c r="N66" s="156"/>
       <c r="O66" s="157"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="155"/>
       <c r="C67" s="156"/>
       <c r="D67" s="156"/>
@@ -5955,7 +5820,7 @@
       <c r="N67" s="156"/>
       <c r="O67" s="157"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="155"/>
       <c r="C68" s="156"/>
       <c r="D68" s="156"/>
@@ -5971,7 +5836,7 @@
       <c r="N68" s="156"/>
       <c r="O68" s="157"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="155"/>
       <c r="C69" s="156"/>
       <c r="D69" s="156"/>
@@ -5987,7 +5852,7 @@
       <c r="N69" s="156"/>
       <c r="O69" s="157"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="155"/>
       <c r="C70" s="156"/>
       <c r="D70" s="156"/>
@@ -6003,7 +5868,7 @@
       <c r="N70" s="156"/>
       <c r="O70" s="157"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="155"/>
       <c r="C71" s="156"/>
       <c r="D71" s="156"/>
@@ -6019,7 +5884,7 @@
       <c r="N71" s="156"/>
       <c r="O71" s="157"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="155"/>
       <c r="C72" s="156"/>
       <c r="D72" s="156"/>
@@ -6035,7 +5900,7 @@
       <c r="N72" s="156"/>
       <c r="O72" s="157"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="155"/>
       <c r="C73" s="156"/>
       <c r="D73" s="156"/>
@@ -6051,7 +5916,7 @@
       <c r="N73" s="156"/>
       <c r="O73" s="157"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="155"/>
       <c r="C74" s="156"/>
       <c r="D74" s="156"/>
@@ -6067,7 +5932,7 @@
       <c r="N74" s="156"/>
       <c r="O74" s="157"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="155"/>
       <c r="C75" s="156"/>
       <c r="D75" s="156"/>
@@ -6083,7 +5948,7 @@
       <c r="N75" s="156"/>
       <c r="O75" s="157"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="155"/>
       <c r="C76" s="156"/>
       <c r="D76" s="156"/>
@@ -6099,7 +5964,7 @@
       <c r="N76" s="156"/>
       <c r="O76" s="157"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="155"/>
       <c r="C77" s="156"/>
       <c r="D77" s="156"/>
@@ -6115,7 +5980,7 @@
       <c r="N77" s="156"/>
       <c r="O77" s="157"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="155"/>
       <c r="C78" s="156"/>
       <c r="D78" s="156"/>
@@ -6131,16 +5996,16 @@
       <c r="N78" s="156"/>
       <c r="O78" s="157"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="155"/>
       <c r="C79" s="160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="156">
         <v>1000</v>
       </c>
       <c r="E79" s="160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F79" s="156"/>
       <c r="G79" s="156"/>
@@ -6153,16 +6018,16 @@
       <c r="N79" s="156"/>
       <c r="O79" s="157"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="155"/>
       <c r="C80" s="160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D80" s="160">
         <v>3</v>
       </c>
       <c r="E80" s="160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" s="156"/>
       <c r="G80" s="156"/>
@@ -6175,7 +6040,7 @@
       <c r="N80" s="156"/>
       <c r="O80" s="157"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="155"/>
       <c r="C81" s="156"/>
       <c r="D81" s="156"/>
@@ -6191,7 +6056,7 @@
       <c r="N81" s="156"/>
       <c r="O81" s="157"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="155"/>
       <c r="C82" s="156"/>
       <c r="D82" s="156"/>
@@ -6207,7 +6072,7 @@
       <c r="N82" s="156"/>
       <c r="O82" s="157"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="155"/>
       <c r="C83" s="156"/>
       <c r="D83" s="156"/>
@@ -6223,7 +6088,7 @@
       <c r="N83" s="156"/>
       <c r="O83" s="157"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="155"/>
       <c r="C84" s="156"/>
       <c r="D84" s="156"/>
@@ -6239,7 +6104,7 @@
       <c r="N84" s="156"/>
       <c r="O84" s="157"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="155"/>
       <c r="C85" s="156"/>
       <c r="D85" s="156"/>
@@ -6255,7 +6120,7 @@
       <c r="N85" s="156"/>
       <c r="O85" s="157"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="155"/>
       <c r="C86" s="156"/>
       <c r="D86" s="156"/>
@@ -6271,7 +6136,7 @@
       <c r="N86" s="156"/>
       <c r="O86" s="157"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="155"/>
       <c r="C87" s="156"/>
       <c r="D87" s="156"/>
@@ -6287,7 +6152,7 @@
       <c r="N87" s="156"/>
       <c r="O87" s="157"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="155"/>
       <c r="C88" s="156"/>
       <c r="D88" s="156"/>
@@ -6303,7 +6168,7 @@
       <c r="N88" s="156"/>
       <c r="O88" s="157"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="155"/>
       <c r="C89" s="156"/>
       <c r="D89" s="156"/>
@@ -6319,7 +6184,7 @@
       <c r="N89" s="156"/>
       <c r="O89" s="157"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="155"/>
       <c r="C90" s="156"/>
       <c r="D90" s="156"/>
@@ -6335,7 +6200,7 @@
       <c r="N90" s="156"/>
       <c r="O90" s="157"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="155"/>
       <c r="C91" s="156"/>
       <c r="D91" s="156"/>
@@ -6351,7 +6216,7 @@
       <c r="N91" s="156"/>
       <c r="O91" s="157"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="155"/>
       <c r="C92" s="156"/>
       <c r="D92" s="156"/>
@@ -6371,10 +6236,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_chp_combined_cycle_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_combined_cycle_network_gas.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1426F-BDF0-884E-BFE6-1D9A31EC02D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
   <si>
     <t>Source</t>
   </si>
@@ -280,36 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve">         Technical lifetime</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t xml:space="preserve">        Land use</t>
@@ -740,13 +711,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1511,7 +1482,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1621,7 +1592,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2044,6 +2014,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2065,7 +2038,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2102,7 +2081,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2140,7 +2125,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2178,7 +2169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2637,58 +2634,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2697,118 +2694,118 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="107"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="108"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="109" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="111" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="119" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="112" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="116"/>
+      <c r="C23" s="120" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="114" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="115" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="119" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="120" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="117"/>
-      <c r="C23" s="121" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2818,67 +2815,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K47"/>
+  <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="60.140625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="60.1640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="164"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16" customHeight="1">
+      <c r="B2" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2889,12 +2886,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="122"/>
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
+      <c r="B7" s="121"/>
       <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="122" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2908,9 +2905,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="129"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2921,10 +2918,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2934,10 +2931,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="142" t="s">
-        <v>121</v>
+      <c r="C10" s="141" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -2953,7 +2950,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>65</v>
@@ -2972,7 +2969,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -2989,10 +2986,10 @@
       <c r="I12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="130"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3009,10 +3006,10 @@
       <c r="I13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="130"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>38</v>
@@ -3029,10 +3026,10 @@
       <c r="I14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="130"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>11</v>
@@ -3049,10 +3046,10 @@
       <c r="I15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="130"/>
+      <c r="J15" s="129"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -3069,10 +3066,10 @@
       <c r="I16" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="130"/>
+      <c r="J16" s="129"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3089,10 +3086,10 @@
       <c r="I17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="130"/>
+      <c r="J17" s="129"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -3112,9 +3109,9 @@
       <c r="I18" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="130"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="129"/>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>44</v>
@@ -3133,427 +3130,407 @@
       <c r="I19" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="130"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="129"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="37"/>
-      <c r="C20" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="43">
-        <v>-0.75</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="130"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="91"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="129"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="37"/>
-      <c r="C21" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="43">
-        <v>-0.75</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="130"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="129"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
-      <c r="C22" s="69" t="s">
-        <v>79</v>
+      <c r="C22" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="43">
-        <v>-0.75</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="44">
+        <f>'Research data'!G14</f>
+        <v>126000000</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="70" t="s">
-        <v>84</v>
+      <c r="G22" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="130"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="129"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="37"/>
-      <c r="C23" s="69" t="s">
-        <v>80</v>
+      <c r="C23" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="43">
-        <v>-0.75</v>
+        <v>34</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0</v>
       </c>
       <c r="F23" s="33"/>
-      <c r="G23" s="70" t="s">
-        <v>85</v>
+      <c r="G23" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="130"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="129"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="37"/>
-      <c r="C24" s="69" t="s">
-        <v>81</v>
+      <c r="C24" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="43">
-        <v>65.369349100926101</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0</v>
       </c>
       <c r="F24" s="33"/>
-      <c r="G24" s="71" t="s">
-        <v>86</v>
+      <c r="G24" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="130"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="129"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="37"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="130"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="129"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
-      <c r="C26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="130"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="123">
+        <f>'Research data'!G17</f>
+        <v>1200000</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="129"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="44">
-        <f>'Research data'!G14</f>
-        <v>126000000</v>
+        <v>54</v>
+      </c>
+      <c r="E27" s="43">
+        <f>'Research data'!G20</f>
+        <v>360</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="130"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="129"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="44">
+        <v>54</v>
+      </c>
+      <c r="E28" s="126">
         <v>0</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H28" s="33"/>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="130"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="129"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E29" s="44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="130"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="129"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E30" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="130"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="129"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="37"/>
-      <c r="C31" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="124">
-        <f>'Research data'!G17</f>
-        <v>1200000</v>
-      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="127"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
-        <v>59</v>
-      </c>
+      <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" s="130"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="32"/>
+      <c r="J31" s="129"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="37"/>
-      <c r="C32" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="43">
-        <f>'Research data'!G20</f>
-        <v>360</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="130"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="124"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="129"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="127">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E33" s="44">
+        <f>'Research data'!G9</f>
+        <v>0.1</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="130"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="129"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="44">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="123">
+        <f>'Research data'!G10</f>
+        <v>2.5</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H34" s="33"/>
-      <c r="I34" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="130"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="149" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="129"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E35" s="44">
-        <v>1</v>
+        <f>'Research data'!G11</f>
+        <v>30</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="130"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="129"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="44">
+        <v>0</v>
+      </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="130"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="129"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
-      <c r="C37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="130"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="44">
+        <v>442800</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="129"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
-      <c r="C38" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>4</v>
-      </c>
+      <c r="C38" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="44">
-        <f>'Research data'!G9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J38" s="130"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J38" s="129"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
-      <c r="C39" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="124">
-        <f>'Research data'!G10</f>
-        <v>2.5</v>
+      <c r="C39" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="44">
+        <v>2835000</v>
       </c>
       <c r="F39" s="33"/>
-      <c r="G39" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="J39" s="130"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="129"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
-      <c r="C40" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="C40" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="44">
-        <f>'Research data'!G11</f>
-        <v>30</v>
+        <v>534600</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="G40" s="33"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="151" t="s">
-        <v>151</v>
-      </c>
-      <c r="J40" s="130"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="129"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
-      <c r="C41" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="C41" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="19"/>
       <c r="E41" s="44">
-        <v>0</v>
+        <v>354600</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -3561,103 +3538,18 @@
       <c r="I41" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="130"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="44">
-        <v>442800</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="130"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="44">
-        <v>0</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="130"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="44">
-        <v>2835000</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="130"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="44">
-        <v>534600</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="130"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="44">
-        <v>354600</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" s="130"/>
-    </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="J41" s="129"/>
+    </row>
+    <row r="42" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3669,8 +3561,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:Q25"/>
@@ -3679,102 +3571,102 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="73" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="73" customWidth="1"/>
-    <col min="11" max="11" width="9" style="73" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="73" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="73" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="73" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="73" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="73" customWidth="1"/>
-    <col min="17" max="17" width="114" style="72" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="72"/>
+    <col min="1" max="2" width="3.5" style="71" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="71" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="9" style="72" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="72" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="72" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="72" customWidth="1"/>
+    <col min="17" max="17" width="114" style="71" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="75"/>
-    </row>
-    <row r="3" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="17" thickBot="1"/>
+    <row r="2" spans="2:17">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="74"/>
+    </row>
+    <row r="3" spans="2:17" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="139" t="s">
-        <v>107</v>
+      <c r="C3" s="138" t="s">
+        <v>97</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="139"/>
+      <c r="G3" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="138"/>
       <c r="I3" s="66" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="66" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L3" s="66"/>
       <c r="M3" s="66" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N3" s="66"/>
       <c r="O3" s="66" t="s">
         <v>74</v>
       </c>
       <c r="P3" s="66"/>
-      <c r="Q3" s="139" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="136"/>
+      <c r="Q3" s="138" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="135"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
+    <row r="5" spans="2:17" ht="17" thickBot="1">
+      <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3791,51 +3683,51 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="69"/>
     </row>
-    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77"/>
-      <c r="C6" s="80" t="s">
+    <row r="6" spans="2:17" ht="17" thickBot="1">
+      <c r="B6" s="76"/>
+      <c r="C6" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="83">
         <f>ROUND(120,0)</f>
         <v>120</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84">
+      <c r="H6" s="82"/>
+      <c r="I6" s="83">
         <f>Notes!$D$20/1000</f>
         <v>120</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
       <c r="Q6" s="69"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="77"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="85"/>
-      <c r="Q7" s="140"/>
-    </row>
-    <row r="8" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="77"/>
+    <row r="7" spans="2:17">
+      <c r="B7" s="76"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="84"/>
+      <c r="Q7" s="139"/>
+    </row>
+    <row r="8" spans="2:17" ht="17" thickBot="1">
+      <c r="B8" s="76"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
       </c>
@@ -3850,119 +3742,119 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
       <c r="Q8" s="30"/>
     </row>
-    <row r="9" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="77"/>
-      <c r="C9" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="81" t="s">
+    <row r="9" spans="2:17" ht="17" thickBot="1">
+      <c r="B9" s="76"/>
+      <c r="C9" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="93">
         <f>ROUND(0.1,1)</f>
         <v>0.1</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="90">
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="89">
         <f>428*303/1000000</f>
         <v>0.12968399999999999</v>
       </c>
-      <c r="Q9" s="138" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
-      <c r="C10" s="93" t="s">
+      <c r="Q9" s="137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17" thickBot="1">
+      <c r="B10" s="76"/>
+      <c r="C10" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="81" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="93">
         <f>ROUND(2.5,1)</f>
         <v>2.5</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="82">
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="81">
         <f>Notes!D54/12</f>
         <v>2.5</v>
       </c>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="79"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="78"/>
       <c r="Q10" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
-      <c r="C11" s="96" t="s">
+    <row r="11" spans="2:17" ht="17" thickBot="1">
+      <c r="B11" s="76"/>
+      <c r="C11" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="81" t="s">
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="96">
         <f>ROUND(30,0)</f>
         <v>30</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="84">
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="83">
         <f>Notes!D55</f>
         <v>30</v>
       </c>
-      <c r="N11" s="89"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
       <c r="Q11" s="69"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="77"/>
+    <row r="12" spans="2:17">
+      <c r="B12" s="76"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
       <c r="Q12" s="69"/>
     </row>
-    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
+    <row r="13" spans="2:17" ht="17" thickBot="1">
+      <c r="B13" s="76"/>
       <c r="C13" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3975,331 +3867,331 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
       <c r="Q13" s="69"/>
     </row>
-    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="77"/>
-      <c r="C14" s="131" t="s">
-        <v>112</v>
+    <row r="14" spans="2:17" ht="17" thickBot="1">
+      <c r="B14" s="76"/>
+      <c r="C14" s="130" t="s">
+        <v>102</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="93">
         <f>ROUND(G15*G6*1000,2)</f>
         <v>126000000</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
       <c r="Q14" s="69"/>
     </row>
-    <row r="15" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="98" t="s">
+    <row r="15" spans="2:17" ht="17" thickBot="1">
+      <c r="B15" s="76"/>
+      <c r="C15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="94">
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="93">
         <v>1050</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="102">
+      <c r="H15" s="87"/>
+      <c r="I15" s="101">
         <f>Notes!$D$21</f>
         <v>1050</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="102">
+      <c r="J15" s="87"/>
+      <c r="K15" s="101">
         <f>Notes!D79</f>
         <v>1000</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
       <c r="Q15" s="70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="144" t="s">
-        <v>113</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="17" thickBot="1">
+      <c r="B16" s="76"/>
+      <c r="C16" s="143" t="s">
+        <v>103</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="105">
+      <c r="G16" s="104">
         <f>G17+G19</f>
         <v>2820000</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="102">
+      <c r="I16" s="101">
         <f>Notes!$D$41</f>
         <v>2520000</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
       <c r="Q16" s="70"/>
     </row>
-    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
-      <c r="C17" s="144" t="s">
-        <v>114</v>
+    <row r="17" spans="2:17" ht="17" thickBot="1">
+      <c r="B17" s="76"/>
+      <c r="C17" s="143" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="98">
         <f>ROUND(G18*G6*1000,2)</f>
         <v>1200000</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="88"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
-      <c r="C18" s="131" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17" thickBot="1">
+      <c r="B18" s="76"/>
+      <c r="C18" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="133" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="149">
+      <c r="F18" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="148">
         <v>10</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="88"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="131" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17" thickBot="1">
+      <c r="B19" s="76"/>
+      <c r="C19" s="130" t="s">
+        <v>106</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="99">
+      <c r="G19" s="98">
         <f>G20*G22</f>
         <v>1620000</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="147" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
-      <c r="C20" s="144" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="81" t="s">
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="146" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17" thickBot="1">
+      <c r="B20" s="76"/>
+      <c r="C20" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="93">
         <f>ROUND(G21*G23/G22,2)</f>
         <v>360</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="147" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
-      <c r="C21" s="131" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="132" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="102">
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17" thickBot="1">
+      <c r="B21" s="76"/>
+      <c r="C21" s="130" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="101">
         <v>3</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="102">
+      <c r="H21" s="87"/>
+      <c r="I21" s="101">
         <f>Notes!D42</f>
         <v>3.5</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="102">
+      <c r="J21" s="87"/>
+      <c r="K21" s="101">
         <f>Notes!D80</f>
         <v>3</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="147" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
-      <c r="C22" s="137" t="s">
-        <v>117</v>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="146" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17" thickBot="1">
+      <c r="B22" s="76"/>
+      <c r="C22" s="136" t="s">
+        <v>107</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="102">
         <v>4500</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="145" t="s">
-        <v>126</v>
+      <c r="H22" s="91"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="162" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17" thickBot="1">
+      <c r="B23" s="76"/>
+      <c r="C23" s="144" t="s">
+        <v>116</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
-      <c r="F23" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="103">
+      <c r="F23" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="102">
         <f>G22*G6</f>
         <v>540000</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="77"/>
-      <c r="C24" s="145"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="147" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="76"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="161" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="77"/>
-      <c r="C25" s="145"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="76"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="161" t="s">
-        <v>160</v>
+      <c r="F25" s="136"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="160" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1"/>
-    <hyperlink ref="Q18" r:id="rId2" location="issuecomment-17880519"/>
+    <hyperlink ref="Q10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="Q18" r:id="rId2" location="issuecomment-17880519" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4307,8 +4199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
@@ -4317,22 +4209,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
     <col min="10" max="10" width="32" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="46"/>
+    <col min="11" max="11" width="130.33203125" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4344,7 +4236,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>23</v>
@@ -4358,7 +4250,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4370,7 +4262,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>31</v>
@@ -4386,19 +4278,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4410,32 +4302,32 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="32">
       <c r="B7" s="51"/>
       <c r="C7" s="59"/>
       <c r="D7" s="64"/>
       <c r="E7" s="59" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F7" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K7" s="59"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="51"/>
       <c r="C8" s="64" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="59"/>
@@ -4446,10 +4338,10 @@
       <c r="J8" s="62"/>
       <c r="K8" s="59"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="59"/>
@@ -4460,7 +4352,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="64"/>
@@ -4472,12 +4364,12 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>72</v>
@@ -4490,13 +4382,13 @@
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="55" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K11" s="63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="51"/>
       <c r="C12" s="60" t="s">
         <v>1</v>
@@ -4510,7 +4402,7 @@
       <c r="J12" s="55"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="51"/>
       <c r="C13" s="59" t="s">
         <v>76</v>
@@ -4524,7 +4416,7 @@
       <c r="J13" s="55"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="51"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -4536,12 +4428,12 @@
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>72</v>
@@ -4554,16 +4446,16 @@
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="55" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="51"/>
       <c r="C16" s="64" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -4574,7 +4466,7 @@
       <c r="J16" s="55"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="51"/>
       <c r="C17" s="64" t="s">
         <v>60</v>
@@ -4588,7 +4480,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="51"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -4599,12 +4491,12 @@
       <c r="J18" s="65"/>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="51"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="46" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="68">
@@ -4614,13 +4506,13 @@
       <c r="I19" s="59"/>
       <c r="J19" s="65"/>
       <c r="K19" s="63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="51"/>
       <c r="C20" s="59" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D20" s="59"/>
       <c r="F20" s="59"/>
@@ -4630,7 +4522,7 @@
       <c r="J20" s="65"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="51"/>
       <c r="C21" s="64" t="s">
         <v>60</v>
@@ -4643,7 +4535,7 @@
       <c r="J21" s="65"/>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -4655,7 +4547,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="59"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="51"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -4675,10 +4567,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="51"/>
       <c r="C24" s="59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="54" t="s">
@@ -4693,7 +4585,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K23" r:id="rId1"/>
+    <hyperlink ref="K23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4704,45 +4596,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O92"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="146" customWidth="1"/>
-    <col min="2" max="2" width="4" style="146" customWidth="1"/>
-    <col min="3" max="3" width="17" style="146" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="146"/>
+    <col min="1" max="1" width="4.83203125" style="145" customWidth="1"/>
+    <col min="2" max="2" width="4" style="145" customWidth="1"/>
+    <col min="3" max="3" width="17" style="145" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-    </row>
-    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="122"/>
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+    </row>
+    <row r="3" spans="2:15" s="21" customFormat="1">
+      <c r="B3" s="121"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4754,1483 +4646,1483 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="158"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="157"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="155"/>
-      <c r="C5" s="156" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="157"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="155"/>
-      <c r="C6" s="156" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="157"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="155"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="157"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="157"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="155"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="157"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="155"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="157"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="157"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="157"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="157"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="155"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="157"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="157"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="155"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="157"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="155"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="157"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="157"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="157"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156">
+      <c r="O3" s="157"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="156"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="154"/>
+      <c r="C5" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="156"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="154"/>
+      <c r="C6" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="156"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="154"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="156"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="156"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="156"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="156"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="156"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="156"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="156"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="156"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="156"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="156"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="156"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="156"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="156"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155">
         <v>120000</v>
       </c>
-      <c r="E20" s="156" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="157"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156">
+      <c r="E20" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="156"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155">
         <v>1050</v>
       </c>
-      <c r="E21" s="156" t="s">
+      <c r="E21" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="156"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="156"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="156"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="156"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="154"/>
+      <c r="C25" s="155" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="156"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="156"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="156"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="156"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="156"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="156"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="156"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="156"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="156"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="156"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="156"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="156"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="154"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="156"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="156"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="156"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="156"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="154"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155">
+        <v>2520000</v>
+      </c>
+      <c r="E41" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="156"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="154"/>
+      <c r="C42" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="155">
+        <v>3.5</v>
+      </c>
+      <c r="E42" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="156"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="154"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="156"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="154"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
+      <c r="N44" s="155"/>
+      <c r="O44" s="156"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="154"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="155"/>
+      <c r="O45" s="156"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="154"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="156"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="154"/>
+      <c r="C47" s="155" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="156"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="154"/>
+      <c r="C48" s="155" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="156"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="156"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="156"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="154"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="156"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="154"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="156"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
+      <c r="O53" s="156"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="154"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155">
+        <v>30</v>
+      </c>
+      <c r="E54" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="156"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="154"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="155">
+        <v>30</v>
+      </c>
+      <c r="E55" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="157"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="157"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="157"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="157"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="155"/>
-      <c r="C25" s="156" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="157"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="157"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="157"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="157"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="157"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="155"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="157"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="157"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="157"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="157"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="157"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="155"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="157"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="157"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="155"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="157"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="155"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="157"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="155"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="157"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="155"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="156"/>
-      <c r="N40" s="156"/>
-      <c r="O40" s="157"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156">
-        <v>2520000</v>
-      </c>
-      <c r="E41" s="156" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="157"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="155"/>
-      <c r="C42" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="156">
-        <v>3.5</v>
-      </c>
-      <c r="E42" s="162" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="157"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="155"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="157"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="155"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
-      <c r="N44" s="156"/>
-      <c r="O44" s="157"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="155"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="156"/>
-      <c r="L45" s="156"/>
-      <c r="M45" s="156"/>
-      <c r="N45" s="156"/>
-      <c r="O45" s="157"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="155"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="157"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="155"/>
-      <c r="C47" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="156"/>
-      <c r="O47" s="157"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="155"/>
-      <c r="C48" s="156" t="s">
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="156"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="154"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="156"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="154"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
+      <c r="N57" s="155"/>
+      <c r="O57" s="156"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="154"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="156"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="154"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="156"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="154"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="156"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="154"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="156"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="154"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="156"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="154"/>
+      <c r="C63" s="159" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="155"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
+      <c r="N63" s="155"/>
+      <c r="O63" s="156"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="154"/>
+      <c r="C64" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
+      <c r="N64" s="155"/>
+      <c r="O64" s="156"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="154"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="155"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="155"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="155"/>
+      <c r="O65" s="156"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="154"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="155"/>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
+      <c r="N66" s="155"/>
+      <c r="O66" s="156"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="154"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="155"/>
+      <c r="F67" s="155"/>
+      <c r="G67" s="155"/>
+      <c r="H67" s="155"/>
+      <c r="I67" s="155"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="155"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
+      <c r="N67" s="155"/>
+      <c r="O67" s="156"/>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="154"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
+      <c r="E68" s="155"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="156"/>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="154"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="155"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
+      <c r="N69" s="155"/>
+      <c r="O69" s="156"/>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="154"/>
+      <c r="C70" s="155"/>
+      <c r="D70" s="155"/>
+      <c r="E70" s="155"/>
+      <c r="F70" s="155"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="155"/>
+      <c r="O70" s="156"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="154"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="155"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="155"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="155"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
+      <c r="N71" s="155"/>
+      <c r="O71" s="156"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="154"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="155"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="155"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155"/>
+      <c r="L72" s="155"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="155"/>
+      <c r="O72" s="156"/>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="154"/>
+      <c r="C73" s="155"/>
+      <c r="D73" s="155"/>
+      <c r="E73" s="155"/>
+      <c r="F73" s="155"/>
+      <c r="G73" s="155"/>
+      <c r="H73" s="155"/>
+      <c r="I73" s="155"/>
+      <c r="J73" s="155"/>
+      <c r="K73" s="155"/>
+      <c r="L73" s="155"/>
+      <c r="M73" s="155"/>
+      <c r="N73" s="155"/>
+      <c r="O73" s="156"/>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="154"/>
+      <c r="C74" s="155"/>
+      <c r="D74" s="155"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="155"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="155"/>
+      <c r="I74" s="155"/>
+      <c r="J74" s="155"/>
+      <c r="K74" s="155"/>
+      <c r="L74" s="155"/>
+      <c r="M74" s="155"/>
+      <c r="N74" s="155"/>
+      <c r="O74" s="156"/>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="154"/>
+      <c r="C75" s="155"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="155"/>
+      <c r="G75" s="155"/>
+      <c r="H75" s="155"/>
+      <c r="I75" s="155"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="155"/>
+      <c r="M75" s="155"/>
+      <c r="N75" s="155"/>
+      <c r="O75" s="156"/>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="154"/>
+      <c r="C76" s="155"/>
+      <c r="D76" s="155"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="155"/>
+      <c r="G76" s="155"/>
+      <c r="H76" s="155"/>
+      <c r="I76" s="155"/>
+      <c r="J76" s="155"/>
+      <c r="K76" s="155"/>
+      <c r="L76" s="155"/>
+      <c r="M76" s="155"/>
+      <c r="N76" s="155"/>
+      <c r="O76" s="156"/>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="154"/>
+      <c r="C77" s="155"/>
+      <c r="D77" s="155"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="155"/>
+      <c r="G77" s="155"/>
+      <c r="H77" s="155"/>
+      <c r="I77" s="155"/>
+      <c r="J77" s="155"/>
+      <c r="K77" s="155"/>
+      <c r="L77" s="155"/>
+      <c r="M77" s="155"/>
+      <c r="N77" s="155"/>
+      <c r="O77" s="156"/>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="154"/>
+      <c r="C78" s="155"/>
+      <c r="D78" s="155"/>
+      <c r="E78" s="155"/>
+      <c r="F78" s="155"/>
+      <c r="G78" s="155"/>
+      <c r="H78" s="155"/>
+      <c r="I78" s="155"/>
+      <c r="J78" s="155"/>
+      <c r="K78" s="155"/>
+      <c r="L78" s="155"/>
+      <c r="M78" s="155"/>
+      <c r="N78" s="155"/>
+      <c r="O78" s="156"/>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="154"/>
+      <c r="C79" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="155">
+        <v>1000</v>
+      </c>
+      <c r="E79" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="155"/>
+      <c r="G79" s="155"/>
+      <c r="H79" s="155"/>
+      <c r="I79" s="155"/>
+      <c r="J79" s="155"/>
+      <c r="K79" s="155"/>
+      <c r="L79" s="155"/>
+      <c r="M79" s="155"/>
+      <c r="N79" s="155"/>
+      <c r="O79" s="156"/>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" s="154"/>
+      <c r="C80" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="156"/>
-      <c r="L48" s="156"/>
-      <c r="M48" s="156"/>
-      <c r="N48" s="156"/>
-      <c r="O48" s="157"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="155"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="156"/>
-      <c r="K49" s="156"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
-      <c r="N49" s="156"/>
-      <c r="O49" s="157"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="155"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="157"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="155"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="157"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="156"/>
-      <c r="L52" s="156"/>
-      <c r="M52" s="156"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="157"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="155"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="156"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="156"/>
-      <c r="O53" s="157"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="155"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156">
-        <v>30</v>
-      </c>
-      <c r="E54" s="156" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="156"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="156"/>
-      <c r="M54" s="156"/>
-      <c r="N54" s="156"/>
-      <c r="O54" s="157"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="155"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156">
-        <v>30</v>
-      </c>
-      <c r="E55" s="156" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="157"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="155"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="157"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="155"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="157"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="155"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="157"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="155"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="157"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="155"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="157"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="155"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="157"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="155"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="156"/>
-      <c r="L62" s="156"/>
-      <c r="M62" s="156"/>
-      <c r="N62" s="156"/>
-      <c r="O62" s="157"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="155"/>
-      <c r="C63" s="160" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="156"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="157"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="155"/>
-      <c r="C64" s="160" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="156"/>
-      <c r="N64" s="156"/>
-      <c r="O64" s="157"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="155"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="156"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="156"/>
-      <c r="N65" s="156"/>
-      <c r="O65" s="157"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="155"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="156"/>
-      <c r="N66" s="156"/>
-      <c r="O66" s="157"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="155"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="156"/>
-      <c r="K67" s="156"/>
-      <c r="L67" s="156"/>
-      <c r="M67" s="156"/>
-      <c r="N67" s="156"/>
-      <c r="O67" s="157"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="155"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="156"/>
-      <c r="L68" s="156"/>
-      <c r="M68" s="156"/>
-      <c r="N68" s="156"/>
-      <c r="O68" s="157"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="155"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="156"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="156"/>
-      <c r="L69" s="156"/>
-      <c r="M69" s="156"/>
-      <c r="N69" s="156"/>
-      <c r="O69" s="157"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="155"/>
-      <c r="C70" s="156"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="156"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="156"/>
-      <c r="H70" s="156"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="156"/>
-      <c r="K70" s="156"/>
-      <c r="L70" s="156"/>
-      <c r="M70" s="156"/>
-      <c r="N70" s="156"/>
-      <c r="O70" s="157"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="155"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="156"/>
-      <c r="M71" s="156"/>
-      <c r="N71" s="156"/>
-      <c r="O71" s="157"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="155"/>
-      <c r="C72" s="156"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="156"/>
-      <c r="F72" s="156"/>
-      <c r="G72" s="156"/>
-      <c r="H72" s="156"/>
-      <c r="I72" s="156"/>
-      <c r="J72" s="156"/>
-      <c r="K72" s="156"/>
-      <c r="L72" s="156"/>
-      <c r="M72" s="156"/>
-      <c r="N72" s="156"/>
-      <c r="O72" s="157"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="155"/>
-      <c r="C73" s="156"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="156"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="156"/>
-      <c r="I73" s="156"/>
-      <c r="J73" s="156"/>
-      <c r="K73" s="156"/>
-      <c r="L73" s="156"/>
-      <c r="M73" s="156"/>
-      <c r="N73" s="156"/>
-      <c r="O73" s="157"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="155"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
-      <c r="I74" s="156"/>
-      <c r="J74" s="156"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="156"/>
-      <c r="M74" s="156"/>
-      <c r="N74" s="156"/>
-      <c r="O74" s="157"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="155"/>
-      <c r="C75" s="156"/>
-      <c r="D75" s="156"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="156"/>
-      <c r="G75" s="156"/>
-      <c r="H75" s="156"/>
-      <c r="I75" s="156"/>
-      <c r="J75" s="156"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="156"/>
-      <c r="M75" s="156"/>
-      <c r="N75" s="156"/>
-      <c r="O75" s="157"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="155"/>
-      <c r="C76" s="156"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="156"/>
-      <c r="J76" s="156"/>
-      <c r="K76" s="156"/>
-      <c r="L76" s="156"/>
-      <c r="M76" s="156"/>
-      <c r="N76" s="156"/>
-      <c r="O76" s="157"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="155"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
-      <c r="K77" s="156"/>
-      <c r="L77" s="156"/>
-      <c r="M77" s="156"/>
-      <c r="N77" s="156"/>
-      <c r="O77" s="157"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="155"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="156"/>
-      <c r="I78" s="156"/>
-      <c r="J78" s="156"/>
-      <c r="K78" s="156"/>
-      <c r="L78" s="156"/>
-      <c r="M78" s="156"/>
-      <c r="N78" s="156"/>
-      <c r="O78" s="157"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="155"/>
-      <c r="C79" s="160" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="156">
-        <v>1000</v>
-      </c>
-      <c r="E79" s="160" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
-      <c r="K79" s="156"/>
-      <c r="L79" s="156"/>
-      <c r="M79" s="156"/>
-      <c r="N79" s="156"/>
-      <c r="O79" s="157"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="155"/>
-      <c r="C80" s="160" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <v>3</v>
       </c>
-      <c r="E80" s="160" t="s">
-        <v>154</v>
-      </c>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="156"/>
-      <c r="J80" s="156"/>
-      <c r="K80" s="156"/>
-      <c r="L80" s="156"/>
-      <c r="M80" s="156"/>
-      <c r="N80" s="156"/>
-      <c r="O80" s="157"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="155"/>
-      <c r="C81" s="156"/>
-      <c r="D81" s="156"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="156"/>
-      <c r="I81" s="156"/>
-      <c r="J81" s="156"/>
-      <c r="K81" s="156"/>
-      <c r="L81" s="156"/>
-      <c r="M81" s="156"/>
-      <c r="N81" s="156"/>
-      <c r="O81" s="157"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="155"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
-      <c r="H82" s="156"/>
-      <c r="I82" s="156"/>
-      <c r="J82" s="156"/>
-      <c r="K82" s="156"/>
-      <c r="L82" s="156"/>
-      <c r="M82" s="156"/>
-      <c r="N82" s="156"/>
-      <c r="O82" s="157"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="155"/>
-      <c r="C83" s="156"/>
-      <c r="D83" s="156"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="156"/>
-      <c r="I83" s="156"/>
-      <c r="J83" s="156"/>
-      <c r="K83" s="156"/>
-      <c r="L83" s="156"/>
-      <c r="M83" s="156"/>
-      <c r="N83" s="156"/>
-      <c r="O83" s="157"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="155"/>
-      <c r="C84" s="156"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
-      <c r="F84" s="156"/>
-      <c r="G84" s="156"/>
-      <c r="H84" s="156"/>
-      <c r="I84" s="156"/>
-      <c r="J84" s="156"/>
-      <c r="K84" s="156"/>
-      <c r="L84" s="156"/>
-      <c r="M84" s="156"/>
-      <c r="N84" s="156"/>
-      <c r="O84" s="157"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="155"/>
-      <c r="C85" s="156"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="156"/>
-      <c r="F85" s="156"/>
-      <c r="G85" s="156"/>
-      <c r="H85" s="156"/>
-      <c r="I85" s="156"/>
-      <c r="J85" s="156"/>
-      <c r="K85" s="156"/>
-      <c r="L85" s="156"/>
-      <c r="M85" s="156"/>
-      <c r="N85" s="156"/>
-      <c r="O85" s="157"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="155"/>
-      <c r="C86" s="156"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="156"/>
-      <c r="G86" s="156"/>
-      <c r="H86" s="156"/>
-      <c r="I86" s="156"/>
-      <c r="J86" s="156"/>
-      <c r="K86" s="156"/>
-      <c r="L86" s="156"/>
-      <c r="M86" s="156"/>
-      <c r="N86" s="156"/>
-      <c r="O86" s="157"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="155"/>
-      <c r="C87" s="156"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="156"/>
-      <c r="F87" s="156"/>
-      <c r="G87" s="156"/>
-      <c r="H87" s="156"/>
-      <c r="I87" s="156"/>
-      <c r="J87" s="156"/>
-      <c r="K87" s="156"/>
-      <c r="L87" s="156"/>
-      <c r="M87" s="156"/>
-      <c r="N87" s="156"/>
-      <c r="O87" s="157"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="155"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="156"/>
-      <c r="I88" s="156"/>
-      <c r="J88" s="156"/>
-      <c r="K88" s="156"/>
-      <c r="L88" s="156"/>
-      <c r="M88" s="156"/>
-      <c r="N88" s="156"/>
-      <c r="O88" s="157"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="155"/>
-      <c r="C89" s="156"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="156"/>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="156"/>
-      <c r="L89" s="156"/>
-      <c r="M89" s="156"/>
-      <c r="N89" s="156"/>
-      <c r="O89" s="157"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="155"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="156"/>
-      <c r="G90" s="156"/>
-      <c r="H90" s="156"/>
-      <c r="I90" s="156"/>
-      <c r="J90" s="156"/>
-      <c r="K90" s="156"/>
-      <c r="L90" s="156"/>
-      <c r="M90" s="156"/>
-      <c r="N90" s="156"/>
-      <c r="O90" s="157"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="155"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
-      <c r="H91" s="156"/>
-      <c r="I91" s="156"/>
-      <c r="J91" s="156"/>
-      <c r="K91" s="156"/>
-      <c r="L91" s="156"/>
-      <c r="M91" s="156"/>
-      <c r="N91" s="156"/>
-      <c r="O91" s="157"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="155"/>
-      <c r="C92" s="156"/>
-      <c r="D92" s="156"/>
-      <c r="E92" s="156"/>
-      <c r="F92" s="156"/>
-      <c r="G92" s="156"/>
-      <c r="H92" s="156"/>
-      <c r="I92" s="156"/>
-      <c r="J92" s="156"/>
-      <c r="K92" s="156"/>
-      <c r="L92" s="156"/>
-      <c r="M92" s="156"/>
-      <c r="N92" s="156"/>
-      <c r="O92" s="157"/>
+      <c r="E80" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="155"/>
+      <c r="G80" s="155"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="155"/>
+      <c r="J80" s="155"/>
+      <c r="K80" s="155"/>
+      <c r="L80" s="155"/>
+      <c r="M80" s="155"/>
+      <c r="N80" s="155"/>
+      <c r="O80" s="156"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="154"/>
+      <c r="C81" s="155"/>
+      <c r="D81" s="155"/>
+      <c r="E81" s="155"/>
+      <c r="F81" s="155"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="155"/>
+      <c r="J81" s="155"/>
+      <c r="K81" s="155"/>
+      <c r="L81" s="155"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="O81" s="156"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="154"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="155"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="155"/>
+      <c r="L82" s="155"/>
+      <c r="M82" s="155"/>
+      <c r="N82" s="155"/>
+      <c r="O82" s="156"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="154"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="155"/>
+      <c r="E83" s="155"/>
+      <c r="F83" s="155"/>
+      <c r="G83" s="155"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="155"/>
+      <c r="J83" s="155"/>
+      <c r="K83" s="155"/>
+      <c r="L83" s="155"/>
+      <c r="M83" s="155"/>
+      <c r="N83" s="155"/>
+      <c r="O83" s="156"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="154"/>
+      <c r="C84" s="155"/>
+      <c r="D84" s="155"/>
+      <c r="E84" s="155"/>
+      <c r="F84" s="155"/>
+      <c r="G84" s="155"/>
+      <c r="H84" s="155"/>
+      <c r="I84" s="155"/>
+      <c r="J84" s="155"/>
+      <c r="K84" s="155"/>
+      <c r="L84" s="155"/>
+      <c r="M84" s="155"/>
+      <c r="N84" s="155"/>
+      <c r="O84" s="156"/>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="154"/>
+      <c r="C85" s="155"/>
+      <c r="D85" s="155"/>
+      <c r="E85" s="155"/>
+      <c r="F85" s="155"/>
+      <c r="G85" s="155"/>
+      <c r="H85" s="155"/>
+      <c r="I85" s="155"/>
+      <c r="J85" s="155"/>
+      <c r="K85" s="155"/>
+      <c r="L85" s="155"/>
+      <c r="M85" s="155"/>
+      <c r="N85" s="155"/>
+      <c r="O85" s="156"/>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="154"/>
+      <c r="C86" s="155"/>
+      <c r="D86" s="155"/>
+      <c r="E86" s="155"/>
+      <c r="F86" s="155"/>
+      <c r="G86" s="155"/>
+      <c r="H86" s="155"/>
+      <c r="I86" s="155"/>
+      <c r="J86" s="155"/>
+      <c r="K86" s="155"/>
+      <c r="L86" s="155"/>
+      <c r="M86" s="155"/>
+      <c r="N86" s="155"/>
+      <c r="O86" s="156"/>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="154"/>
+      <c r="C87" s="155"/>
+      <c r="D87" s="155"/>
+      <c r="E87" s="155"/>
+      <c r="F87" s="155"/>
+      <c r="G87" s="155"/>
+      <c r="H87" s="155"/>
+      <c r="I87" s="155"/>
+      <c r="J87" s="155"/>
+      <c r="K87" s="155"/>
+      <c r="L87" s="155"/>
+      <c r="M87" s="155"/>
+      <c r="N87" s="155"/>
+      <c r="O87" s="156"/>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="154"/>
+      <c r="C88" s="155"/>
+      <c r="D88" s="155"/>
+      <c r="E88" s="155"/>
+      <c r="F88" s="155"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="155"/>
+      <c r="K88" s="155"/>
+      <c r="L88" s="155"/>
+      <c r="M88" s="155"/>
+      <c r="N88" s="155"/>
+      <c r="O88" s="156"/>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="154"/>
+      <c r="C89" s="155"/>
+      <c r="D89" s="155"/>
+      <c r="E89" s="155"/>
+      <c r="F89" s="155"/>
+      <c r="G89" s="155"/>
+      <c r="H89" s="155"/>
+      <c r="I89" s="155"/>
+      <c r="J89" s="155"/>
+      <c r="K89" s="155"/>
+      <c r="L89" s="155"/>
+      <c r="M89" s="155"/>
+      <c r="N89" s="155"/>
+      <c r="O89" s="156"/>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" s="154"/>
+      <c r="C90" s="155"/>
+      <c r="D90" s="155"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="155"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
+      <c r="J90" s="155"/>
+      <c r="K90" s="155"/>
+      <c r="L90" s="155"/>
+      <c r="M90" s="155"/>
+      <c r="N90" s="155"/>
+      <c r="O90" s="156"/>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="154"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
+      <c r="H91" s="155"/>
+      <c r="I91" s="155"/>
+      <c r="J91" s="155"/>
+      <c r="K91" s="155"/>
+      <c r="L91" s="155"/>
+      <c r="M91" s="155"/>
+      <c r="N91" s="155"/>
+      <c r="O91" s="156"/>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="154"/>
+      <c r="C92" s="155"/>
+      <c r="D92" s="155"/>
+      <c r="E92" s="155"/>
+      <c r="F92" s="155"/>
+      <c r="G92" s="155"/>
+      <c r="H92" s="155"/>
+      <c r="I92" s="155"/>
+      <c r="J92" s="155"/>
+      <c r="K92" s="155"/>
+      <c r="L92" s="155"/>
+      <c r="M92" s="155"/>
+      <c r="N92" s="155"/>
+      <c r="O92" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_chp_combined_cycle_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_combined_cycle_network_gas.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1426F-BDF0-884E-BFE6-1D9A31EC02D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61369A22-2BF5-EA41-AA07-57F540E22C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="160">
   <si>
     <t>Source</t>
   </si>
@@ -706,6 +712,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1491,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,6 +1767,7 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2642,12 +2652,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2821,23 +2831,23 @@
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="60.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="60.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3315,15 +3325,15 @@
         <v>3</v>
       </c>
       <c r="E29" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="33"/>
-      <c r="I29" s="31" t="s">
-        <v>56</v>
+      <c r="I29" s="165" t="s">
+        <v>159</v>
       </c>
       <c r="J29" s="129"/>
     </row>
@@ -3571,25 +3581,25 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="72" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="71" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="72" customWidth="1"/>
     <col min="11" max="11" width="9" style="72" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" style="72" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="72" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="72" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="72" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="72" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="72" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="72" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="72" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="72" customWidth="1"/>
     <col min="17" max="17" width="114" style="71" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="71"/>
+    <col min="18" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
@@ -4209,18 +4219,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
     <col min="10" max="10" width="32" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.33203125" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="46"/>
+    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4302,7 +4312,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="34">
       <c r="B7" s="51"/>
       <c r="C7" s="59"/>
       <c r="D7" s="64"/>
@@ -4603,12 +4613,12 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="145" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="4" style="145" customWidth="1"/>
     <col min="3" max="3" width="17" style="145" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="145"/>
+    <col min="4" max="16384" width="10.7109375" style="145"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
